--- a/Demo/DemoResults/PuzzleTimes.xlsx
+++ b/Demo/DemoResults/PuzzleTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevo\Documents\DokiDokiConga\Demo\DemoResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4C068-10D4-4473-8AFF-63B00C982956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF72983-6D52-4DE3-9C37-A0AAFEA6B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11115" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Puzzle #</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Puzzle "Name"</t>
   </si>
   <si>
-    <t>#6</t>
-  </si>
-  <si>
     <t>#7</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>#2 Cag</t>
+  </si>
+  <si>
+    <t>#6 KurryW</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,68 +563,68 @@
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <f>AVERAGE(B7:B31)</f>
-        <v>445.8</v>
+        <v>484</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AB2" si="0">AVERAGE(D7:D31)</f>
-        <v>65.599999999999994</v>
+        <v>62.666666666666664</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>417.2</v>
+        <v>356.83333333333331</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>261.2</v>
+        <v>222.83333333333334</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>283.2</v>
+        <v>292.83333333333331</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>231.8</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>164.4</v>
+        <v>157.66666666666666</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>291.2</v>
+        <v>312.33333333333331</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>217.2</v>
+        <v>241.2</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>682.4</v>
+        <v>1084.25</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>376.4</v>
+        <v>346.33333333333331</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>677.2</v>
+        <v>753</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>134.4</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <f>MEDIAN(B7:B31)</f>
@@ -636,31 +636,31 @@
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>315.5</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>254.5</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="T3">
         <f t="shared" si="1"/>
@@ -668,19 +668,19 @@
       </c>
       <c r="V3">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>1106</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>348</v>
+        <v>339.5</v>
       </c>
       <c r="Z3">
         <f t="shared" si="1"/>
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="AB3">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,62 +735,56 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>84</v>
@@ -807,11 +801,8 @@
       <c r="L7">
         <v>132</v>
       </c>
-      <c r="N7">
-        <v>71</v>
-      </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7">
         <v>35</v>
@@ -822,8 +813,8 @@
       <c r="T7">
         <v>273</v>
       </c>
-      <c r="V7">
-        <v>95</v>
+      <c r="W7" t="s">
+        <v>43</v>
       </c>
       <c r="X7">
         <v>439</v>
@@ -832,18 +823,18 @@
         <v>63</v>
       </c>
       <c r="AA7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB7">
         <v>67</v>
       </c>
       <c r="AC7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>818</v>
@@ -885,7 +876,7 @@
         <v>2232</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8">
         <v>140</v>
@@ -893,7 +884,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>699</v>
@@ -940,7 +931,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>392</v>
@@ -969,25 +960,19 @@
       <c r="R10">
         <v>141</v>
       </c>
-      <c r="T10">
-        <v>73</v>
-      </c>
       <c r="V10">
         <v>560</v>
       </c>
       <c r="X10">
         <v>144</v>
       </c>
-      <c r="Z10">
-        <v>72</v>
-      </c>
       <c r="AB10">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>259</v>
@@ -1019,8 +1004,8 @@
       <c r="T11">
         <v>155</v>
       </c>
-      <c r="V11">
-        <v>106</v>
+      <c r="W11" t="s">
+        <v>43</v>
       </c>
       <c r="X11">
         <v>348</v>
@@ -1034,102 +1019,144 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>252</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>341</v>
+      </c>
+      <c r="N12">
+        <v>290</v>
+      </c>
+      <c r="P12">
+        <v>124</v>
+      </c>
+      <c r="R12">
+        <v>418</v>
+      </c>
+      <c r="T12">
+        <v>193</v>
+      </c>
+      <c r="V12">
+        <v>1126</v>
+      </c>
+      <c r="X12">
+        <v>196</v>
+      </c>
+      <c r="Z12">
+        <v>451</v>
+      </c>
+      <c r="AB12">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/DemoResults/PuzzleTimes.xlsx
+++ b/Demo/DemoResults/PuzzleTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevo\Documents\DokiDokiConga\Demo\DemoResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF72983-6D52-4DE3-9C37-A0AAFEA6B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABAF636-3E69-4D2D-B68C-6314E80CBEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11115" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Puzzle #</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>#6 KurryW</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>World 3</t>
+  </si>
+  <si>
+    <t>Scifi</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
 </sst>
 </file>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +576,41 @@
     <col min="29" max="29" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>

--- a/Demo/DemoResults/PuzzleTimes.xlsx
+++ b/Demo/DemoResults/PuzzleTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevo\Documents\DokiDokiConga\Demo\DemoResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABAF636-3E69-4D2D-B68C-6314E80CBEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256A756-6372-4A5E-9B0F-637F3B07935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Puzzle #</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Bad</t>
+  </si>
+  <si>
+    <t>Sci-fi</t>
+  </si>
+  <si>
+    <t>Party?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +245,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -255,13 +267,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent2" xfId="1" builtinId="36"/>
@@ -548,7 +561,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +590,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
         <v>46</v>
@@ -595,7 +608,7 @@
       <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="R1" t="s">
@@ -607,7 +620,7 @@
       <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
